--- a/Web_Scraper/Graphics Card.xlsx
+++ b/Web_Scraper/Graphics Card.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,221 +441,221 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INTEL</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ARC A750 8 GB GDDR6 GRAPHICS CARD</t>
+          <t>GAMING GEFORCE GT 710 1GB GDRR3 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>29,900৳</t>
+          <t>4,400৳</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZOTAC</t>
+          <t>Colorful</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GAMING GEFORCE RTX 4070 TWIN EDGE 12GB GDDR6X GRAPHICS CARD</t>
+          <t>GeForce GT710-2GD3-V 2GB Graphics Card</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>76,900৳</t>
+          <t>4,600৳</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>Gigabyte</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 4060 TI VENTUS 3X 8GB OC GDDR6 GRAPHICS CARD</t>
+          <t>GeForce GT 710 2GB Graphics Card</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>61,900৳</t>
+          <t>5,000৳</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>COLORFUL</t>
+          <t>Palit</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IGAME GEFORCE RTX 3060 TI ULTRA W OC LHR-V 8GB GDDR6 GRAPHICS CARD</t>
+          <t>GeForce GT 730 2GB DDR3 Graphics Card</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>48,500৳</t>
+          <t>6,000৳</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>COLORFUL</t>
+          <t>GIGABYTE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 3060 TI NB DUO V2 LHR-V 8GB GDDR6 GRAPHICS CARD</t>
+          <t>GeForce GT 730 2GB GDDR3 Graphics Card</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43,500৳</t>
+          <t>6,600৳</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>COLORFUL</t>
+          <t>GIGABYTE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 3060 TI NB DUO G6X-V GDDR6X 8GB GRAPHICS CARD</t>
+          <t>GeForce GT 730 2GB GDDR5 Graphics Card</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>43,500৳</t>
+          <t>6,800৳</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ZOTAC</t>
+          <t>Asus</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GAMING GEFORCE RTX 4090 AMP EXTREME AIRO 24GB GDDR6X GRAPHICS CARD</t>
+          <t>GeForce GT 730 2GB GDDR5 Graphics Card</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>229,900৳</t>
+          <t>8,500৳</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PNY</t>
+          <t>Palit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 4080 16GB OC XLR8 GAMING VERTO TF GRAPHICS CARD</t>
+          <t>GeForce GT 1030 2GB DDR4 Graphics Card</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>147,000৳</t>
+          <t>9,000৳</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>Colorful</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TUF GAMING GEFORCE RTX 3060 V2 12GB GDDR6 GRAPHICS CARD</t>
+          <t>GeForce GT 1030 V3 2GB Graphics Card</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>55,000৳</t>
+          <t>9,300৳</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>COLORFUL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DUAL GEFORCE RTX 3060 WHITE OC EDITION 12GB GDDR6 GRAPHICS CARD</t>
+          <t>GEFORCE GT1030 4G-V 4GB GDDR4 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>54,900৳</t>
+          <t>9,500৳</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GUNNIR</t>
+          <t>Gigabyte</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>INTEL ARC A380 INDEX 6GB DDR6 GRAPHICS CARD</t>
+          <t>GeForce GT 1030 Low Profile D4 2GB Graphics Card</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15,500৳</t>
+          <t>9,500৳</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>Msi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ROG STRIX GEFORCE RTX 4090 OC EDITION GDDR6X 24GB GRAPHICS CARD</t>
+          <t xml:space="preserve">GeForce GT 1030 OC 2GB Graphics Card </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>288,000৳</t>
+          <t>9,800৳</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>Gigabyte</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ROG STRIX GEFORCE RTX 4090 24GB GDDR6X WHITE EDITION GRAPHICS CARD</t>
+          <t>GeForce GT 1030 2GB OC Graphics Card</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>308,000৳</t>
+          <t>10,000৳</t>
         </is>
       </c>
     </row>
@@ -667,216 +667,216 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ROG STRIX GEFORCE RTX 4080 16GB GDDR6X OC EDITION GRAPHICS CARD</t>
+          <t>GeForce GT 1030 2GB GDDR5 low Profile Graphics Card</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>208,000৳</t>
+          <t>10,300৳</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PELADN</t>
+          <t>Asus</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RTX 3070TI 8G TAICHI OC GDDR6 GAMING GRAPHICS CARD</t>
+          <t>Phoenix GeForce GT 1030 OC 2GB Graphics Card</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>67,999৳</t>
+          <t>10,800৳</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PELADN</t>
+          <t>Biostar</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RTX 3070 8G BAIKAI GDDR6 DESKTOP GRAPHICS CARD</t>
+          <t>Radeon RX550 4GB DDR5 Graphics Card</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>57,999৳</t>
+          <t>12,500৳</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>SAPPHIRE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RADEON RX 6400 AERO ITX 4G GDDR6 GRAPHICS CARD</t>
+          <t>PULSE AMD RADEON RX 6400 4GB GDDR6 GAMING GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>19,000৳</t>
+          <t>12,699৳</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SAPPHIRE</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NITRO+ AMD RADEON RX 7900 XTX VAPOR-X 24GB GDDR6 GAMING GRAPHICS CARD</t>
+          <t>Phoenix Radeon RX 550 GDDR5 4GB Evo Graphics Card</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>135,900৳</t>
+          <t>13,800৳</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GUNNIR</t>
+          <t>PELADN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INTEL ARC A380 PHOTON 6G OC 6GB GDDR6 GAMING GRAPHICS CARD</t>
+          <t>RX 580 8G 256Bit Dual Fans Gaming Graphics Card</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16,999৳</t>
+          <t>14,300৳</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>GUNNIR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TUF GAMING GEFORCE RTX 4080 16GB GDDR6X GRAPHICS CARD</t>
+          <t>INTEL ARC A380 INDEX 6GB DDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>178,000৳</t>
+          <t>15,500৳</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PELADN</t>
+          <t>ASRock</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RX 5500 XT 8G GDDR6 128 BIT GAMING GRAPHICS CARD WITH DUAL FANS COOLING BLACK</t>
+          <t>Intel Arc A380 Challenger ITX 6GB OC Graphics Card</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19,500৳</t>
+          <t>16,200৳</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PELADN</t>
+          <t>GUNNIR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RX 5500 XT 8G GDDR6 128 bit Gaming Graphics Card</t>
+          <t>INTEL ARC A380 PHOTON 6G OC 6GB GDDR6 GAMING GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19,599৳</t>
+          <t>16,999৳</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PELADN</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RTX 2080 SUPER 8G GDDR6 256 BIT GAMING GRAPHICS CARD</t>
+          <t>GEFORCE® GTX 1050 TI OC 4GB Graphics Card</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>49,499৳</t>
+          <t>17,200৳</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PELADN</t>
+          <t>SAPPHIRE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">RTX 2080 8G GAMING GDDR6 256 BIT GRAPHICS CARD </t>
+          <t>PULSE AMD RADEON RX 6500 XT 4G DDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>44,900৳</t>
+          <t>17,900৳</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>SPARKLE</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 4060 TI GAMING X 8GB GDDR6 GRAPHICS CARD</t>
+          <t>INTEL ARC A380 ELF 6GB GDDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>65,900৳</t>
+          <t>18,000৳</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>COLORFUL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 4060 GAMING X 8GB GDDR6 GRAPHICS CARD</t>
+          <t>GEFORCE GTX 1650 NB 4GD6-V GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>46,900৳</t>
+          <t>18,300৳</t>
         </is>
       </c>
     </row>
@@ -888,12 +888,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GAMING GEFORCE RTX 4070 TI AMP AIRO 12GB GDDR6X GRAPHICS CARD</t>
+          <t>GAMING GEFORCE GTX 1650 AMP CORE 4GB GDDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>118,900৳</t>
+          <t>18,300৳</t>
         </is>
       </c>
     </row>
@@ -905,29 +905,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 3060 8GB VERTO DUAL FAN GRAPHICS CARD</t>
+          <t>GEFORCE GTX 1650 4GB DUAL FAN LOW PROFILE GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>33,999৳</t>
+          <t>18,399৳</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 4070 AERO OC 12G GRAPHIC CARD</t>
+          <t>PHOENIX GEFORCE GTX 1630 4GB GDDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>93,000৳</t>
+          <t>18,500৳</t>
         </is>
       </c>
     </row>
@@ -939,12 +939,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 3050 VENTUS 2X 8GB GDDR6 OCV1 GRAPHICS CARD</t>
+          <t>GEFORCE GTX 1630 VENTUS XS 4G OC GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>34,000৳</t>
+          <t>18,800৳</t>
         </is>
       </c>
     </row>
@@ -956,709 +956,709 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GEFORCE GTX 1650 4GB GDDR6 VENTUS XS OCV1 GRAPHICS CARD</t>
+          <t>RADEON RX 6400 AERO ITX 4G GDDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>22,000৳</t>
+          <t>19,000৳</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ZOTAC</t>
+          <t>PELADN</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GAMING GEFORCE RTX 4080 16GB AMP EXTREME AIRO GRAPHICS CARD</t>
+          <t>RX 5500 XT 8G GDDR6 128 BIT GAMING GRAPHICS CARD WITH DUAL FANS COOLING BLACK</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>164,900৳</t>
+          <t>19,500৳</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>PELADN</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Radeon RX 6900 XT Gaming Z Trio 16GB GDDR6 AMD Graphics Card</t>
+          <t>RX 5500 XT 8G GDDR6 128 bit Gaming Graphics Card</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>133,900৳</t>
+          <t>19,599৳</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>GIGABYTE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TUF GAMING GeForce RTX 3060 12GB OC Graphics Card</t>
+          <t>GEFORCE GTX 1050 TI D5 4G GDDR5 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>56,000৳</t>
+          <t>19,800৳</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ZOTAC</t>
+          <t>SAPPHIRE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GAMING GEFORCE RTX 4060 TI 8GB TWIN EDGE OC GRAPHICS CARD SPIDER-MAN ACROSS THE SPIDER VERSE BUNDLE</t>
+          <t>PULSE AMD RADEON RX 6500 XT 8GB OC GDDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>55,900৳</t>
+          <t>19,900৳</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ZOTAC</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GAMING GEFORCE RTX 4060 8GB OC GRAPHICS CARD SPIDER-MAN ACROSS THE SPIDER VERSE BUNDLE</t>
+          <t>Phoenix GeForce GTX 1050 Ti 4GB Graphics Card</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>43,900৳</t>
+          <t>20,000৳</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ZOTAC</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GAMING GEFORCE RTX 4060 8GB GDDR6 SOLO GRAPHICS CARD</t>
+          <t>QUADRO P620 2 GB GDDR5 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>39,900৳</t>
+          <t>20,000৳</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ZOTAC</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GAMING GeForce RTX 3080 12GB Trinity OC LHR Graphics Card</t>
+          <t>TUF GAMING GEFORCE GTX 1630 4GB GDDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>123,000৳</t>
+          <t>20,500৳</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>XFX</t>
+          <t>GIGABYTE</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SPEEDSTER QICK 319 AMD RADEON RX 6800 BLACK 16GB GDDR6 GAMING GRAPHICS CARD</t>
+          <t>GEFORCE GTX 1650 D6 OC LOW PROFILE 4G GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>85,000৳</t>
+          <t>20,500৳</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>XFX</t>
+          <t>Gigabyte</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SPEEDSTER QICK 319 AMD RADEON RX 6700 XT BLACK 12GB GDDR6 GAMING GRAPHICS CARD</t>
+          <t>GeForce GTX 1630 OC 4G Graphics Card</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>74,000৳</t>
+          <t>20,800৳</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SPARKLE</t>
+          <t>Gigabyte</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>INTEL ARC A750 8GB DDR6 TITAN OC EDITION TRIPLE FAN GRAPHICS CARD</t>
+          <t>GeForce GTX 1650 D6 WINDFORCE OC 4G Graphics Card</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>29,500৳</t>
+          <t>20,800৳</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SPARKLE</t>
+          <t>Palit</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>INTEL ARC A380 ELF 6GB GDDR6 GRAPHICS CARD</t>
+          <t>GeForce GTX 1050 Ti StormX 4GB GDDR5 Graphics Card</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>18,000৳</t>
+          <t>20,800৳</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SAPPHIRE</t>
+          <t>GIGABYTE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TOXIC RADEON RX 6900 XT 16GB GDDR6 Limited Edition GRAPHICS CARD</t>
+          <t>GEFORCE GTX 1650 OC LOW PROFILE 4G GDDR5 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>91,900৳</t>
+          <t>20,999৳</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SAPPHIRE</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TOXIC AMD RADEON RX 6950 XT 16GB OC LE GDDR6 GRAPHICS CARD</t>
+          <t>Cerberus GeForce GTX 1050 Ti OC Edition 4GB Graphics Card</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>95,900৳</t>
+          <t>22,000৳</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SAPPHIRE</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TOXIC AMD RADEON RX 6900 XT LIMITED EDITION GRAPHICS CARD</t>
+          <t>GEFORCE GTX 1650 4GB GDDR6 VENTUS XS OCV1 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>176,000৳</t>
+          <t>22,000৳</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SAPPHIRE</t>
+          <t>Biostar</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PULSE RADEON RX 6750 XT 12GB DDR6 GRAPHICS CARD</t>
+          <t>Radeon RX580 8GB GDDR5 Dual Cooling Gaming Graphic Card</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>54,900৳</t>
+          <t>24,999৳</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SAPPHIRE</t>
+          <t>Huananzhi</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PULSE Radeon RX 6650 XT 8GB OC GDDR6 GRAPHICS CARD</t>
+          <t>GeForce GTX 1050TI 4G Graphics Card</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>34,900৳</t>
+          <t>25,000৳</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SAPPHIRE</t>
+          <t>PELADN</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NITRO+ Radeon RX 6650 XT 8GB OC GDDR6 GRAPHICS CARD</t>
+          <t>GTX 1660 TI 6G GDDR6 192BIT DUAL FANS GAMING GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>57,900৳</t>
+          <t>25,500৳</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SAPPHIRE</t>
+          <t>Inno3D</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NITRO+ AMD RADEON RX 6950 XT PURE Gaming OC 16GB GDDR6 GRAPHICS CARD</t>
+          <t>GeForce GTX 1050 Ti X2 4GB GDDR5 Graphics Card</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>97,900৳</t>
+          <t>26,000৳</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SAPPHIRE</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NITRO+ AMD RADEON RX 6950 XT GAMING OC 16GB DDR6 GRAPHICS CARD</t>
+          <t>GeForce GTX 1650 Dual OC Edition 4GB GDDR5 Graphics Card</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>164,900৳</t>
+          <t>26,800৳</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SAPPHIRE</t>
+          <t>SPARKLE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NITRO+ AMD RADEON RX 6750 XT 12GB DDR6 GRAPHICS CARD</t>
+          <t>INTEL ARC A750 ORC 8GB GDDR6 OC EDITION GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>83,900৳</t>
+          <t>27,799৳</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NVIDIA</t>
+          <t>Leadtek</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>QUADRO P620 2 GB GDDR5 GRAPHICS CARD</t>
+          <t>WinFast GTX 1650 D6 4G Graphics Card</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>20,000৳</t>
+          <t>28,000৳</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RADEON RX 6750 XT MECH 2X 12G OC GDDR6 GRAPHICS CARD</t>
+          <t>TUF Gaming GeForce GTX 1660 SUPER OC 6GB Graphics Card</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>66,999৳</t>
+          <t>28,500৳</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>GUNNIR</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 3090 TI 24GB SUPRIM X GRAPHICS CARD</t>
+          <t>INTEL ARC A750 PHOTON 8G OC GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>236,000৳</t>
+          <t>28,500৳</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>GUNNIR</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 3060 TI VENTUS 2X 8GD6X OC 8GB GDDR6X GRAPHICS CARD</t>
+          <t>INTEL ARC A750 PHOTON 8G OC W GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>45,999৳</t>
+          <t>28,900৳</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>SPARKLE</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 3050 AERO ITX 8G OC GDDR6 GRAPHICS CARD</t>
+          <t>INTEL ARC A750 8GB DDR6 TITAN OC EDITION TRIPLE FAN GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>39,999৳</t>
+          <t>29,500৳</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>ZOTAC</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GEFORCE GTX 1630 VENTUS XS 4G OC GRAPHICS CARD</t>
+          <t>GAMING GEFORCE RTX 3050 SOLO 8GB GDDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>18,800৳</t>
+          <t>29,500৳</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>INTEL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GEFORCE RTX­­ 4070 TI GAMING OC 12GB GDDR6X GRAPHICS CARD</t>
+          <t>ARC A750 8 GB GDDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>126,000৳</t>
+          <t>29,900৳</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>COLORFUL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GEFORCE RTX­­ 4070 TI EAGLE OC 12GB GDDR6X GRAPHICS CARD</t>
+          <t>IGAME GEFORCE RTX 3050 ULTRA W DUO OC 8G-V GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>121,999৳</t>
+          <t>29,999৳</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>PELADN</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 3070 EAGLE 8GB GDDR6 GRAPHICS CARD</t>
+          <t>RTX 2060 SUPER 8G GDDR6 Graphics Card</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>75,999৳</t>
+          <t>29,999৳</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AORUS GEFORCE RTX 3080 MASTER 12G GRAPHICS CARD</t>
+          <t>GeForce GTX 1660 SUPER VENTUS XS OC 6GB Graphics Card</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>151,000৳</t>
+          <t>30,500৳</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>COLORFUL</t>
+          <t>INTEL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GEFORCE GT1030 4G-V 4GB GDDR4 GRAPHICS CARD</t>
+          <t>ARC A750 8GB GDDR6 LIMITED TIGER GOLD EDITION GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>9,500৳</t>
+          <t>30,900৳</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>PNY</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TUF GAMING GEFORCE RTX 4090 OC EDITION 24GB GDDR6X GRAPHICS CARD</t>
+          <t>GEFORCE RTX 3050 8GB VERTO DUAL FAN GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>290,000৳</t>
+          <t>30,999৳</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>ZOTAC</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TUF GAMING GEFORCE GTX 1630 4GB GDDR6 GRAPHICS CARD</t>
+          <t>GAMING GEFORCE RTX 3050 TWIN EDGE DDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>20,500৳</t>
+          <t>31,000৳</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>GIGABYTE</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PHOENIX GEFORCE GTX 1630 4GB GDDR6 GRAPHICS CARD</t>
+          <t>NVIDIA GEFORCE RTX 3050 8GB WINDFORCE OC TWIN FAN GDDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>18,500৳</t>
+          <t>31,999৳</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>Arktek</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 3080 12GB TUF GAMING OC GRAPHICS CARD</t>
+          <t>GeForce RTX 2060 6GB GDDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>146,000৳</t>
+          <t>32,000৳</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>EVGA</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DUAL RADEON RX 6600 XT OC EDITION 8GB GRAPHICS CARD</t>
+          <t>GEFORCE GTX 1660 SUPER SC ULTRA 6GB GDDR6 GAMING GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>54,800৳</t>
+          <t>32,000৳</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>Palit</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DUAL GEFORCE RTX 3050 OC EDITION 8GB GRAPHICS CARD</t>
+          <t>GeForce GTX 1660 Ti DUAL 6GB GDDR6 Graphics Card</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>46,800৳</t>
+          <t>32,500৳</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>ZOTAC</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DUAL GEFORCE RTX 2060 6GB OC EDITION EVO GRAPHICS CARD</t>
+          <t>GAMING GeForce GTX 1660 Ti 6GB Graphics Card</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>49,400৳</t>
+          <t>33,000৳</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>PALIT</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GAMING GEFORCE GT 710 1GB GDRR3 GRAPHICS CARD</t>
+          <t>GEFORCE GTX 1660 SUPER GP 6GB GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>4,400৳</t>
+          <t>33,500৳</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>PNY</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>GEFORCE RTX­­ 4070 TI AERO OC 12GB GDDR6X GRAPHICS CARD</t>
+          <t>GEFORCE RTX 3060 8GB VERTO DUAL FAN GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>126,999৳</t>
+          <t>33,999৳</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 4080 16GB GAMING OC GRAPHICS CARD</t>
+          <t>GEFORCE RTX 3050 VENTUS 2X 8GB GDDR6 OCV1 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>180,500৳</t>
+          <t>34,000৳</t>
         </is>
       </c>
     </row>
@@ -1670,471 +1670,454 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GeForce GT 1030 Low Profile D4 2GB Graphics Card</t>
+          <t>GeForce RTX 3050 EAGLE OC 8G 8GB GAMING Graphics Card</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>9,500৳</t>
+          <t>34,300৳</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>Colorful</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GeForce RTX 4070 VENTUS 2X 12G OC GRAPHICS CARDS</t>
+          <t>Geforce RTX 3060 NB DUO 8G-V 8GB GDDR6 Graphics Card</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>79,900৳</t>
+          <t>34,500৳</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>Gigabyte</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GeForce RTX 4070 GAMING X TRIO 12G GRAPHICS CARDS</t>
+          <t>GeForce GTX 1660 OC 6G Graphics Card</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>89,900৳</t>
+          <t>34,500৳</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ZOTAC</t>
+          <t>Gigabyte</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GAMING GeForce RTX 4070 AMP AIRO Graphics Card</t>
+          <t>GeForce RTX 3050 GAMING OC 8 GB Graphics Card</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>85,900৳</t>
+          <t>34,500৳</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ZOTAC</t>
+          <t>SAPPHIRE</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>GAMING GeForce GTX 1660 Ti 6GB Graphics Card</t>
+          <t>PULSE AMD RADEON RX 7600 8G DDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>33,000৳</t>
+          <t>34,500৳</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Asus</t>
+          <t>SAPPHIRE</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ROG Strix GeForce RTX 3090 OC Edition 24GB Graphics Card</t>
+          <t>PULSE Radeon RX 6650 XT 8GB OC GDDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>265,000৳</t>
+          <t>34,900৳</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ZOTAC</t>
+          <t>LEADTEK</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GAMING GEFORCE RTX 3050 TWIN EDGE DDR6 GRAPHICS CARD</t>
+          <t>WINFAST RTX 3050 HURRICANE WHITE EDITION 8G GDDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>31,000৳</t>
+          <t>35,000৳</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ZOTAC</t>
+          <t>Gigabyte</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GAMING GEFORCE GTX 1650 AMP CORE 4GB GDDR6 GRAPHICS CARD</t>
+          <t>GeForce GTX 1660 SUPER OC 6GB Graphics Card</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>18,300৳</t>
+          <t>36,000৳</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PELADN</t>
+          <t>ZOTAC</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GTX 1660 TI 6G GDDR6 192BIT DUAL FANS GAMING GRAPHICS CARD</t>
+          <t>GAMING GEFORCE RTX 3060 TWIN EDGE GDDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>25,500৳</t>
+          <t>36,400৳</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>Gigabyte</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GeForce RTX 4090 SUPRIM LIQUID X Graphics Card</t>
+          <t>GeForce GTX 1660 SUPER D6 6GB GDDR6 Graphics Card</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>245,900৳</t>
+          <t>37,000৳</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>COLORFUL</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 4070 EAGLE OC 12G GRAPHICS CARD</t>
+          <t>IGAME RTX 3060 ULTRA W OC 8GB-V 8GB DDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>88,000৳</t>
+          <t>37,499৳</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 4060 TI GAMING OC 8GB GRAPHICS CARD</t>
+          <t>TUF Gaming GeForce GTX 1660 SUPER 6GB Graphics Card</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>65,500৳</t>
+          <t>37,500৳</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GEFORCE GTX 1650 D6 OC LOW PROFILE 4G GRAPHICS CARD</t>
+          <t>GEFORCE RTX 3060 VENTUS 2X OC 8GB GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>20,500৳</t>
+          <t>39,400৳</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>AORUS GEFORCE RTX 4090 MASTER 24G 24GB GDDR6X GRAPHICS CARD</t>
+          <t xml:space="preserve">GeForce RTX 3060 VENTUS 2X OC 12GB Graphics Card </t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>300,000৳</t>
+          <t>39,900৳</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Colorful</t>
+          <t>ZOTAC</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GeForce RTX 3060 NB 12G-V 12GB GDDR6 Graphics Card</t>
+          <t>GAMING GEFORCE RTX 4060 8GB GDDR6 SOLO GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>43,500৳</t>
+          <t>39,900৳</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TUF Gaming GeForce RTX 3060 V2 OC 12GB GDDR6 Graphics Card</t>
+          <t>GEFORCE RTX 3050 AERO ITX 8G OC GDDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>56,200৳</t>
+          <t>39,999৳</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PELADN</t>
+          <t>GUNNIR</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>RTX 2060 SUPER 8G GDDR6 Graphics Card</t>
+          <t>INTEL ARC A770 PHOTON 8G OC GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>29,999৳</t>
+          <t>40,999৳</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>PELADN</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">GeForce RTX 3060 VENTUS 2X OC 12GB Graphics Card </t>
+          <t>RTX 2070 SUPER 8G GDDR6 256 BIT GAMING GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>39,900৳</t>
+          <t>40,999৳</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ZOTAC</t>
+          <t>Colorful</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GAMING GEFORCE RTX 4070 TI AMP EXTREME AIRO 12GB GRAPHICS CARD</t>
+          <t>iGame GeForce RTX 3060 Ultra W OC 12G-V 12GB GDDR6 Graphics Card</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>125,900৳</t>
+          <t>41,499৳</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Zotac</t>
+          <t>INTEL</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Gaming GeForce RTX 3070 Twin Edge 8GB Graphics Card</t>
+          <t>ARC A770 LIMITED EDITION DUAL FAN 16GB GDDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>67,500৳</t>
+          <t>41,500৳</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PNY</t>
+          <t>PALIT</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GeForce RTX 4070 Ti 12GB XLR8 Gaming Verto TF OC GRAPHICS CARD</t>
+          <t>GEFORCE RTX 3050 DUAL 8GB GDDR6 GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>119,900৳</t>
+          <t>41,900৳</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>GIGABYTE</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 4070 TI VENTUS 3X 12G OC GRAPHICS CARDS</t>
+          <t>GEFORCE RTX 3060 GAMING OC 8G GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>115,900৳</t>
+          <t>41,999৳</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>GUNNIR</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 4070 TI GAMING X TRIO 12GB GDDR6X GRAPHICS CARD</t>
+          <t>INTEL ARC A770 PHOTON 16G OC GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>122,900৳</t>
+          <t>42,000৳</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>GUNNIR</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>GeForce RTX 3070 Ti VENTUS 3X 8G OC Graphics Card</t>
+          <t>INTEL ARC A770 PHOTON 16G OC W GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>85,900৳</t>
+          <t>42,500৳</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>GeForce RTX 3070 Ti GAMING X TRIO 8GB GDDR6X Graphics Card</t>
+          <t>TUF Gaming GeForce GTX 1660 Ti EVO OC Edition 6GB GDDR6 Graphics Card</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>76,500৳</t>
+          <t>42,800৳</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>ZOTAC</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>GeForce RTX 3060 Ti GAMING X TRIO 8GB GDDR6 Graphics Card</t>
+          <t>GAMING GEFORCE RTX 4060 8GB TWIN EDGE OC GRAPHICS CARD WHITE EDITION</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>59,900৳</t>
+          <t>42,900৳</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Msi</t>
+          <t>GIGABYTE</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve">GeForce GT 1030 OC 2GB Graphics Card </t>
+          <t>GEFORCE RTX 3060 EAGLE 12GB GRAPHICS CARD</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>9,800৳</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>GUNNIR</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>INTEL ARC A770 PHOTON 16G OC W GRAPHICS CARD</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>42,500৳</t>
+          <t>43,499৳</t>
         </is>
       </c>
     </row>
